--- a/siv_game/Data/monsters_data.xlsx
+++ b/siv_game/Data/monsters_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="11925"/>
+    <workbookView windowWidth="13725" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>monster_type</t>
   </si>
@@ -30,6 +30,12 @@
     <t>speed</t>
   </si>
   <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>score_value</t>
+  </si>
+  <si>
     <t>color0</t>
   </si>
   <si>
@@ -58,6 +64,15 @@
   </si>
   <si>
     <t>WORDS_TYPE_MONSTER_WAS_HIT</t>
+  </si>
+  <si>
+    <t>MONSTER_TYPE_DOG</t>
+  </si>
+  <si>
+    <t>MONSTER_TYPE_BOSS</t>
+  </si>
+  <si>
+    <t>MONSTER_TYPE_BOMB</t>
   </si>
 </sst>
 </file>
@@ -1025,25 +1040,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="3.375" customWidth="1"/>
     <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="7" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="6.375" customWidth="1"/>
-    <col min="9" max="9" width="28.25" customWidth="1"/>
-    <col min="10" max="10" width="29.375" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="9" width="7.375" customWidth="1"/>
+    <col min="10" max="10" width="6.375" customWidth="1"/>
+    <col min="11" max="11" width="28.25" customWidth="1"/>
+    <col min="12" max="12" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1074,69 +1091,163 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>0.8</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0.6</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.4</v>
       </c>
-      <c r="H2">
+      <c r="J2">
+        <v>1.5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>0.8</v>
+      </c>
+      <c r="H4">
+        <v>0.01</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>0.8</v>
       </c>
-      <c r="F3">
-        <v>0.6</v>
-      </c>
-      <c r="G3">
-        <v>0.4</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
+      <c r="H5">
+        <v>0.8</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
